--- a/biology/Botanique/Prothalle/Prothalle.xlsx
+++ b/biology/Botanique/Prothalle/Prothalle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, le prothalle (du latin pro-, « qui précède, qui se produit avant », et du grec θαλλος (thallos), « brindille ») est une structure reproductrice autonome des Ptéridophytes, porteuse des gamètes. C'est une petite lame mince formée de cellules chlorophylliennes (lorsqu'il est vert mais pouvant être également sans couleur et saprotrophe), issue du développement d'un protonéma formé lors de la germination d’une spore chez les ptéridophytes (ou ptérophytes, Pteridophyta, les fougères et d’autres espèces proches). Cette structure est formée par divisions mitotiques de cellules haploïdes.
 Le prothalle a généralement une forme triangulaire (cordiforme) et sa taille est réduite : 2 à 5 mm. Il présente sur sa face inférieure des petites racines, appelée rhizoïdes servant à absorber les éléments nutritifs de l'eau et à la fixation. Le prothalle ne différencie aucun tissu conducteur.
